--- a/testcases/case14.xlsx
+++ b/testcases/case14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="885" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="226">
   <si>
     <t>name</t>
   </si>
@@ -821,8 +821,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2481,18 +2481,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2503,46 +2503,49 @@
         <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>165</v>
       </c>
@@ -2552,47 +2555,50 @@
       <c r="C2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="H2" s="0" t="s">
         <v>106</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>170</v>
       </c>
@@ -2602,47 +2608,50 @@
       <c r="C3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="H3" s="0" t="s">
         <v>106</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>175</v>
       </c>
@@ -2652,43 +2661,46 @@
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="H4" s="0" t="s">
         <v>106</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2904,18 +2916,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -2926,64 +2938,67 @@
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -2993,65 +3008,68 @@
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
@@ -3061,65 +3079,68 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -3129,65 +3150,68 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>26</v>
       </c>
@@ -3197,65 +3221,68 @@
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>32</v>
       </c>
@@ -3265,61 +3292,64 @@
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>11</v>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="W6" s="0" t="s">
         <v>11</v>
       </c>
     </row>

--- a/testcases/case14.xlsx
+++ b/testcases/case14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="885" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="885" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="226">
   <si>
     <t>name</t>
   </si>
@@ -2481,10 +2481,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2515,33 +2515,36 @@
         <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2567,34 +2570,37 @@
       <c r="G2" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>106</v>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>106</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2620,34 +2626,37 @@
       <c r="G3" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>106</v>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>106</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2673,34 +2682,37 @@
       <c r="G4" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>106</v>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>106</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2918,7 +2930,7 @@
   </sheetPr>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
